--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,28 +43,34 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>junk</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>thin</t>
@@ -73,189 +79,234 @@
     <t>ok</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>ended</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>filters</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>send</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>received</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>although</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>sharpe</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>found</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>way</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -268,15 +319,15 @@
     <t>love</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -286,25 +337,37 @@
     <t>salad</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>highly</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>positive</t>
@@ -665,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9911504424778761</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9661016949152542</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9622641509433962</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.8900928792569659</v>
+        <v>0.8777089783281734</v>
       </c>
       <c r="L5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9595959595959596</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.8542372881355932</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9245283018867925</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0.8441558441558441</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9135135135135135</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,31 +1065,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
+        <v>0.7922077922077922</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8">
-        <v>0.8440677966101695</v>
-      </c>
-      <c r="L8">
-        <v>249</v>
-      </c>
-      <c r="M8">
-        <v>249</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>0.7705627705627706</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1084,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,16 +1168,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K10">
-        <v>0.6842105263157895</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1126,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8846153846153846</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>0.6301369863013698</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1176,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1184,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8767123287671232</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,31 +1265,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1234,13 +1297,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1252,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="K13">
-        <v>0.5142857142857142</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1276,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8653846153846154</v>
+        <v>0.8767123287671232</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K14">
-        <v>0.5079365079365079</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8604651162790697</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1352,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>0.4444444444444444</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.839622641509434</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K16">
-        <v>0.3693693693693694</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1434,13 +1497,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8235294117647058</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1452,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>0.3499197431781702</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L17">
-        <v>436</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>436</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>810</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8108108108108109</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1502,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K18">
-        <v>0.03972602739726028</v>
+        <v>0.406099518459069</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1526,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>701</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8028169014084507</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1552,7 +1615,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>27</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7846153846153846</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C20">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,7 +1665,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20">
+        <v>0.1730769230769231</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1697,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7777777777777778</v>
+        <v>0.8040540540540541</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,7 +1715,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21">
+        <v>0.1397260273972603</v>
+      </c>
+      <c r="L21">
+        <v>102</v>
+      </c>
+      <c r="M21">
+        <v>102</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1612,13 +1747,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7756410256410257</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C22">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1630,7 +1765,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1797,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7471264367816092</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1664,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7307692307692307</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1682,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1690,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.725</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1708,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1716,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7168141592920354</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="C26">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1734,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1742,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7090909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="C27">
         <v>39</v>
@@ -1760,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1768,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7045454545454546</v>
+        <v>0.75</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1786,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1794,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6818181818181818</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1812,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1820,13 +1979,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6699029126213593</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C30">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1838,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1846,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1864,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1872,13 +2031,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6346153846153846</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1890,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1898,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5769230769230769</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1916,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1924,13 +2083,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5698324022346368</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C34">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D34">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1942,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1950,13 +2109,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5656565656565656</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1968,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1976,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.6875</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1994,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2002,13 +2161,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5384615384615384</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2020,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2028,13 +2187,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5294117647058824</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2046,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2054,13 +2213,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5172413793103449</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2072,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2080,13 +2239,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5151515151515151</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2098,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2106,13 +2265,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2124,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2132,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4868421052631579</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2150,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2158,13 +2317,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4857142857142857</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2176,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2184,13 +2343,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4838709677419355</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2202,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2210,13 +2369,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4827586206896552</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2228,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2236,13 +2395,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4705882352941176</v>
+        <v>0.62</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2254,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2262,13 +2421,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4705882352941176</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2280,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2288,25 +2447,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4576271186440678</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>27</v>
-      </c>
-      <c r="D48">
-        <v>27</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2314,13 +2473,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4545454545454545</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2332,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2340,13 +2499,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4390243902439024</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2358,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2366,13 +2525,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4285714285714285</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2384,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2392,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.425</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2410,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2418,13 +2577,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4123711340206185</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2436,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2444,13 +2603,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2462,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2470,13 +2629,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3947368421052632</v>
+        <v>0.5</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2488,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2496,13 +2655,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3846153846153846</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2514,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2522,7 +2681,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3555555555555556</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C57">
         <v>16</v>
@@ -2540,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2548,13 +2707,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3389830508474576</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2566,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2574,13 +2733,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3333333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2592,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2600,13 +2759,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3260869565217391</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2618,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2626,13 +2785,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3114754098360656</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2644,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2652,13 +2811,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.308641975308642</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2670,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2678,25 +2837,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2918918918918919</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C63">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>262</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2704,13 +2863,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2761904761904762</v>
+        <v>0.4</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2722,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2730,13 +2889,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2424242424242424</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2748,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2756,25 +2915,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2317880794701987</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2782,13 +2941,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2206896551724138</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2800,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2808,13 +2967,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2051282051282051</v>
+        <v>0.3423180592991914</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2826,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>62</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2834,13 +2993,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.18</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2852,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2860,13 +3019,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1460674157303371</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2878,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2886,13 +3045,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1360544217687075</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2904,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2912,13 +3071,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1344086021505376</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2930,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>161</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2938,13 +3097,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05442176870748299</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2956,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>695</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2964,13 +3123,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03129074315514994</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2982,7 +3141,449 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>743</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.2323232323232323</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="C77">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>62</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.2</v>
+      </c>
+      <c r="C79">
+        <v>29</v>
+      </c>
+      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.1919191919191919</v>
+      </c>
+      <c r="C80">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <v>38</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="C82">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="C85">
+        <v>99</v>
+      </c>
+      <c r="D85">
+        <v>99</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.0903010033444816</v>
+      </c>
+      <c r="C87">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.08296943231441048</v>
+      </c>
+      <c r="C88">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.08241758241758242</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.06657963446475196</v>
+      </c>
+      <c r="C90">
+        <v>51</v>
+      </c>
+      <c r="D90">
+        <v>52</v>
+      </c>
+      <c r="E90">
+        <v>0.02</v>
+      </c>
+      <c r="F90">
+        <v>0.98</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.05609756097560976</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
